--- a/test_result_data/hasil_uji_5.xlsx
+++ b/test_result_data/hasil_uji_5.xlsx
@@ -472,21 +472,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1.        0.6779661]</t>
+          <t>[0.         0.66666667]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.05 1.  ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.0952381  0.80808081]</t>
+          <t>[0.  0.8]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -500,21 +500,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1.        0.6779661]</t>
+          <t>[0.         0.66666667]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.05 1.  ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.0952381  0.80808081]</t>
+          <t>[0.  0.8]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -528,17 +528,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.4        0.67272727]</t>
+          <t>[0.         0.66101695]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.1   0.925]</t>
+          <t>[0.    0.975]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.16       0.77894737]</t>
+          <t>[0.         0.78787879]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -556,21 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.41666667 0.6875    ]</t>
+          <t>[0.58333333 0.72916667]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.25  0.825]</t>
+          <t>[0.35  0.875]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.3125 0.75  ]</t>
+          <t>[0.4375     0.79545455]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -584,21 +584,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.33333333 0.66666667]</t>
+          <t>[1.        0.6779661]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.1 0.9]</t>
+          <t>[0.05 1.  ]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.15384615 0.76595745]</t>
+          <t>[0.0952381  0.80808081]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_5.xlsx
+++ b/test_result_data/hasil_uji_5.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,23 +470,17 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.         0.66666667]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.  0.8]</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8080808080808081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -498,23 +492,17 @@
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.         0.66666667]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.  0.8]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8080808080808081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -526,20 +514,14 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.         0.66101695]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.    0.975]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0.         0.78787879]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7789473684210527</v>
       </c>
       <c r="F4" t="n">
         <v>0.65</v>
@@ -554,23 +536,17 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.58333333 0.72916667]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.35  0.875]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.4375     0.79545455]</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7586206896551724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -582,23 +558,17 @@
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[1.        0.6779661]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.05 1.  ]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.0952381  0.80808081]</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8172043010752688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_5.xlsx
+++ b/test_result_data/hasil_uji_5.xlsx
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D5" t="n">
         <v>0.825</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8172043010752688</v>
+        <v>0.8125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
